--- a/biology/Botanique/Amphiblemma_monticola/Amphiblemma_monticola.xlsx
+++ b/biology/Botanique/Amphiblemma_monticola/Amphiblemma_monticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphiblemma monticola est une espèce de plantes de la famille des Melastomataceae, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, la plante se rencontre dans les monts Bakossi dans le Sud-Ouest du pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, la plante se rencontre dans les monts Bakossi dans le Sud-Ouest du pays.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma monticola est une plante rampante qui pousse sur des parois rocheuses ou près de rapides à l'ombre de la forêt[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma monticola est une plante rampante qui pousse sur des parois rocheuses ou près de rapides à l'ombre de la forêt.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est classée comme vulnérable depuis 2006 à cause de la destruction de son habitat due à l'expansion de l'agriculture.
 </t>
@@ -604,9 +622,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiblemma monticola appartient à la famille des Melastomataceae et au genre des Amphiblemma[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiblemma monticola appartient à la famille des Melastomataceae et au genre des Amphiblemma.
 </t>
         </is>
       </c>
